--- a/Horas de requerimientos.xlsx
+++ b/Horas de requerimientos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\SEPTIMO SEMESTRE ING.SISTEMAS\Ing. del software y requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF75515-6B86-4A33-AABA-F3B076C4479D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4446B4-5F4B-47FA-86EC-FB2C2F00BEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D8C3B442-A586-4796-B9C3-8750C1C49CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="147">
   <si>
     <t>TIPO APLICACIÓN</t>
   </si>
@@ -298,13 +299,197 @@
   </si>
   <si>
     <t>Gestion y Planeacion del Proyecto</t>
+  </si>
+  <si>
+    <t>TOTAL HH Esfuerzo</t>
+  </si>
+  <si>
+    <t>Dias HH Calendario - Fabrica Clasica</t>
+  </si>
+  <si>
+    <t>COSTO Fabrica Clasica</t>
+  </si>
+  <si>
+    <t>Dias HH Fabrica Continuas</t>
+  </si>
+  <si>
+    <t>COSTO Fabrica Continua THH</t>
+  </si>
+  <si>
+    <t>COSTO X H (COL)</t>
+  </si>
+  <si>
+    <t>COSTO X H (INDIA)</t>
+  </si>
+  <si>
+    <t>COSTO X H (BRA)</t>
+  </si>
+  <si>
+    <t>COSTO X H (South AFRICA)</t>
+  </si>
+  <si>
+    <t>COSTO X H (AFRICA Meridional)</t>
+  </si>
+  <si>
+    <t>COSTO X H EUROPA</t>
+  </si>
+  <si>
+    <t>COSTO X H ASIA</t>
+  </si>
+  <si>
+    <t>Regla de 3</t>
+  </si>
+  <si>
+    <t>COSTO TOTAL</t>
+  </si>
+  <si>
+    <t>Cifra Universal 1.68</t>
+  </si>
+  <si>
+    <t>20 dias</t>
+  </si>
+  <si>
+    <t>25 dias</t>
+  </si>
+  <si>
+    <t>28 dias</t>
+  </si>
+  <si>
+    <t>CHINO Mandarin</t>
+  </si>
+  <si>
+    <t>8 Horas</t>
+  </si>
+  <si>
+    <t>7 horas</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>CHINO Cantones</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>INGLES</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Usar Dispositivos del movil - API Camara, Audio, GPS</t>
+  </si>
+  <si>
+    <t>Total Fabrica Clasica</t>
+  </si>
+  <si>
+    <t>Total Fabrica Continua</t>
+  </si>
+  <si>
+    <t>Diferencia entre Clasica y Continua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Costo Fabrica clasica </t>
+  </si>
+  <si>
+    <t>Total Costo Fabrica Continua</t>
+  </si>
+  <si>
+    <t>Total Costo del Proyecto</t>
+  </si>
+  <si>
+    <t>Desviacion Estandar</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>23,22,21,14,15</t>
+  </si>
+  <si>
+    <t>(1-23)</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>2,3,</t>
+  </si>
+  <si>
+    <t>1,2,3,7,16,15</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>14,15,18,19</t>
+  </si>
+  <si>
+    <t>12,14,15,16,18</t>
+  </si>
+  <si>
+    <t>1,2,8,7,4</t>
+  </si>
+  <si>
+    <t>4,7,12,15,16,18</t>
+  </si>
+  <si>
+    <t>4,5,8,7,3,5</t>
+  </si>
+  <si>
+    <t>8,4,5,7,3,7,1,5</t>
+  </si>
+  <si>
+    <t>5,8,4,7,2,3,1,9</t>
+  </si>
+  <si>
+    <t>10,12,1,3,8,9</t>
+  </si>
+  <si>
+    <t>8,9,14,15,18,19</t>
+  </si>
+  <si>
+    <t>8,9,14,15,18,20</t>
+  </si>
+  <si>
+    <t>8,5,7,12,15,20,21</t>
+  </si>
+  <si>
+    <t>4,5,2,9,7,12,18,19</t>
+  </si>
+  <si>
+    <t>8,7,4,1,2,10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +511,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +551,60 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -355,21 +612,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Énfasis1" xfId="5" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="6" builtinId="33"/>
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -680,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCC002B-52D8-4089-A237-3D6FBFEA3A30}">
   <dimension ref="B3:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="3">
-        <f>G6*I6</f>
+        <f t="shared" ref="J6:J27" si="0">G6*I6</f>
         <v>96</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -827,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="3">
-        <f>G7*I7</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -852,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="3">
-        <f>G8*I8</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -877,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="3">
-        <f>G9*I9</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -902,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="3">
-        <f>G10*I10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -927,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="3">
-        <f>G11*I11</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -956,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <f>G12*I12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -981,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="3">
-        <f>G13*I13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1006,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="3">
-        <f>G14*I14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -1031,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <f>G15*I15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -1056,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <f>G16*I16</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1081,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f>G17*I17</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K17" s="3"/>
@@ -1104,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <f>G18*I18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1129,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="3">
-        <f>G19*I19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1154,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="3">
-        <f>G20*I20</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -1179,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <f>G21*I21</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -1204,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="3">
-        <f>G22*I22</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -1233,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="J23" s="3">
-        <f>G23*I23</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -1258,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="3">
-        <f>G24*I24</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -1283,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="3">
-        <f>G25*I25</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -1308,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="3">
-        <f>G26*I26</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -1333,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="3">
-        <f>G27*I27</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -1633,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="3">
-        <f>G40*I40</f>
+        <f t="shared" ref="J40:J49" si="1">G40*I40</f>
         <v>6</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -1662,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="3">
-        <f>G41*I41</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -1687,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="3">
-        <f>G42*I42</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="K42" s="3" t="s">
@@ -1712,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="J43" s="3">
-        <f>G43*I43</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="K43" s="3" t="s">
@@ -1737,7 +2120,7 @@
         <v>24</v>
       </c>
       <c r="J44" s="3">
-        <f>G44*I44</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -1766,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="J45" s="3">
-        <f>G45*I45</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K45" s="3" t="s">
@@ -1791,7 +2174,7 @@
         <v>48</v>
       </c>
       <c r="J46" s="3">
-        <f>G46*I46</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="K46" s="3" t="s">
@@ -1816,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="3">
-        <f>G47*I47</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -1841,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="3">
-        <f>G48*I48</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -1866,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="3">
-        <f>G49*I49</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -1894,4 +2277,2810 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108751FA-E96B-422B-B946-F161285E59C6}">
+  <dimension ref="A1:AA105"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5546875" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5546875" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="S1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <f>H2*F2</f>
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <f>J2/8</f>
+        <v>4</v>
+      </c>
+      <c r="L2" s="11">
+        <f>VLOOKUP(G2,$S$2:$Z$4,2,FALSE)*J2</f>
+        <v>294400</v>
+      </c>
+      <c r="M2" s="12">
+        <f>J2/24</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N2" s="11">
+        <f>(VLOOKUP(G2,$S$2:$Z$4,2,FALSE)*(J2/3))+(VLOOKUP(G2,$S$2:$Z$4,3,FALSE)*(J2/3))+(VLOOKUP(G2,$S$2:$Z$4,5,FALSE)*(J2/3))</f>
+        <v>223932.89760348585</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="11">
+        <v>9200</v>
+      </c>
+      <c r="U2" s="11">
+        <v>6532.9444444444453</v>
+      </c>
+      <c r="V2" s="11">
+        <v>14556</v>
+      </c>
+      <c r="W2" s="13">
+        <f>(W3/51)*27</f>
+        <v>5260.7647058823532</v>
+      </c>
+      <c r="X2" s="13">
+        <f>(X3/51)*27</f>
+        <v>8443.5882352941189</v>
+      </c>
+      <c r="Y2" s="13">
+        <f>(Y3/51)*27</f>
+        <v>29647.058823529413</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>(Z4/21)*27</f>
+        <v>17236.383428571429</v>
+      </c>
+      <c r="AA2" s="14">
+        <f>T2/(SUM(T$2:T$4))</f>
+        <v>0.27467606138412848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <f>H3*F3</f>
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="0">J3/8</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <f>VLOOKUP(G3,$S$2:$Z$4,2,FALSE)*J3</f>
+        <v>275472</v>
+      </c>
+      <c r="M3" s="12">
+        <f t="shared" ref="M3:M8" si="1">J3/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N3" s="11">
+        <f>(VLOOKUP(G3,$S$2:$Z$4,2,FALSE)*(J3/3))+(VLOOKUP(G3,$S$2:$Z$4,3,FALSE)*(J3/3))+(VLOOKUP(G3,$S$2:$Z$4,5,FALSE)*(J3/3))</f>
+        <v>203301.33333333331</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="11">
+        <v>17217</v>
+      </c>
+      <c r="U3" s="11">
+        <v>10965</v>
+      </c>
+      <c r="V3" s="11">
+        <v>21688</v>
+      </c>
+      <c r="W3" s="11">
+        <v>9937</v>
+      </c>
+      <c r="X3" s="11">
+        <v>15949</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>56000</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>(Z4/21)*51</f>
+        <v>32557.613142857146</v>
+      </c>
+      <c r="AA3" s="14">
+        <f t="shared" ref="AA3:AA4" si="2">T3/(SUM(T$2:T$4))</f>
+        <v>0.51403236400549357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="3">H4*F4</f>
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L4" s="11">
+        <f>VLOOKUP(G4,$S$2:$Z$4,2,FALSE)*J4</f>
+        <v>826416</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <f>(VLOOKUP(G4,$S$2:$Z$4,2,FALSE)*(J4/3))+(VLOOKUP(G4,$S$2:$Z$4,3,FALSE)*(J4/3))+(VLOOKUP(G4,$S$2:$Z$4,5,FALSE)*(J4/3))</f>
+        <v>609904</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="11">
+        <v>7077</v>
+      </c>
+      <c r="U4" s="11">
+        <v>5834</v>
+      </c>
+      <c r="V4" s="11">
+        <f>(V3/51)*21</f>
+        <v>8930.3529411764703</v>
+      </c>
+      <c r="W4" s="11">
+        <f>(W3/51)*21</f>
+        <v>4091.705882352941</v>
+      </c>
+      <c r="X4" s="11">
+        <f>(X3/51)*21</f>
+        <v>6567.2352941176478</v>
+      </c>
+      <c r="Y4" s="11">
+        <f>(Y3/51)*21</f>
+        <v>23058.823529411762</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>13406.076000000001</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="2"/>
+        <v>0.21129157461037798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L5" s="11">
+        <f>VLOOKUP(G5,$S$2:$Z$4,2,FALSE)*J5</f>
+        <v>1652832</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="11">
+        <f>(VLOOKUP(G5,$S$2:$Z$4,2,FALSE)*(J5/3))+(VLOOKUP(G5,$S$2:$Z$4,3,FALSE)*(J5/3))+(VLOOKUP(G5,$S$2:$Z$4,5,FALSE)*(J5/3))</f>
+        <v>1219808</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="13">
+        <f>SUM(T2:T4)</f>
+        <v>33494</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" ref="U5:Z5" si="4">SUM(U2:U4)</f>
+        <v>23331.944444444445</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="4"/>
+        <v>45174.352941176468</v>
+      </c>
+      <c r="W5" s="13">
+        <f t="shared" si="4"/>
+        <v>19289.470588235294</v>
+      </c>
+      <c r="X5" s="13">
+        <f t="shared" si="4"/>
+        <v>30959.823529411766</v>
+      </c>
+      <c r="Y5" s="13">
+        <f t="shared" si="4"/>
+        <v>108705.88235294117</v>
+      </c>
+      <c r="Z5" s="13">
+        <f t="shared" si="4"/>
+        <v>63200.07257142858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="11">
+        <f>VLOOKUP(G6,$S$2:$Z$4,2,FALSE)*J6</f>
+        <v>68868</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N6" s="11">
+        <f>(VLOOKUP(G6,$S$2:$Z$4,2,FALSE)*(J6/3))+(VLOOKUP(G6,$S$2:$Z$4,3,FALSE)*(J6/3))+(VLOOKUP(G6,$S$2:$Z$4,5,FALSE)*(J6/3))</f>
+        <v>50825.333333333328</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="13">
+        <f>T5*1.68</f>
+        <v>56269.919999999998</v>
+      </c>
+      <c r="U6" s="13">
+        <f t="shared" ref="U6:Z6" si="5">U5*1.68</f>
+        <v>39197.666666666664</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" si="5"/>
+        <v>75892.912941176459</v>
+      </c>
+      <c r="W6" s="13">
+        <f t="shared" si="5"/>
+        <v>32406.310588235294</v>
+      </c>
+      <c r="X6" s="13">
+        <f t="shared" si="5"/>
+        <v>52012.503529411762</v>
+      </c>
+      <c r="Y6" s="13">
+        <f t="shared" si="5"/>
+        <v>182625.88235294117</v>
+      </c>
+      <c r="Z6" s="13">
+        <f t="shared" si="5"/>
+        <v>106176.12192000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <f>VLOOKUP(G7,$S$2:$Z$4,2,FALSE)*J7</f>
+        <v>56616</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N7" s="11">
+        <f>(VLOOKUP(G7,$S$2:$Z$4,2,FALSE)*(J7/3))+(VLOOKUP(G7,$S$2:$Z$4,3,FALSE)*(J7/3))+(VLOOKUP(G7,$S$2:$Z$4,5,FALSE)*(J7/3))</f>
+        <v>45340.549019607839</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f>J8/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="11">
+        <f>VLOOKUP(G8,$S$2:$Z$4,2,FALSE)*J8</f>
+        <v>42462</v>
+      </c>
+      <c r="M8" s="12">
+        <f>J8/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="11">
+        <f>(VLOOKUP(G8,$S$2:$Z$4,2,FALSE)*(J8/3))+(VLOOKUP(G8,$S$2:$Z$4,3,FALSE)*(J8/3))+(VLOOKUP(G8,$S$2:$Z$4,5,FALSE)*(J8/3))</f>
+        <v>34005.411764705881</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9">
+        <f>H9*F9</f>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="11">
+        <f>VLOOKUP(G9,$S$2:$Z$4,2,FALSE)*J9</f>
+        <v>28308</v>
+      </c>
+      <c r="M9" s="12">
+        <f>J9/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N9" s="11">
+        <f>(VLOOKUP(G9,$S$2:$Z$4,2,FALSE)*(J9/3))+(VLOOKUP(G9,$S$2:$Z$4,3,FALSE)*(J9/3))+(VLOOKUP(G9,$S$2:$Z$4,5,FALSE)*(J9/3))</f>
+        <v>22670.274509803919</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="S9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M11" s="12"/>
+      <c r="O11" s="20">
+        <f>SUM(L2:L9)</f>
+        <v>3245374</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20">
+        <f>SUM(N2:N9)</f>
+        <v>2409787.7995642703</v>
+      </c>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L13" s="21"/>
+      <c r="M13" s="14">
+        <f>P14/O11</f>
+        <v>0.25746992501811183</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="35"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L14" s="21"/>
+      <c r="M14" s="14">
+        <f>M13*1.68</f>
+        <v>0.43254947403042787</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="37">
+        <f>O11-Q11</f>
+        <v>835586.2004357297</v>
+      </c>
+      <c r="Q14" s="21"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J39" si="6">H18*F18</f>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K28" si="7">J18/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="L18" s="16">
+        <f>VLOOKUP(G18,$S$3:$Z$4,2,FALSE)*J18</f>
+        <v>103302</v>
+      </c>
+      <c r="M18" s="12">
+        <f>J18/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="N18" s="17">
+        <f>(VLOOKUP(G18,$S$3:$Z$4,2,FALSE)*(J18/3))+(VLOOKUP(G18,$S$3:$Z$4,3,FALSE)*(J18/3))+(VLOOKUP(G18,$S$3:$Z$4,5,FALSE)*(J18/3))</f>
+        <v>76238</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="S18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="L19" s="16">
+        <f>VLOOKUP(G19,$S$3:$Z$4,2,FALSE)*J19</f>
+        <v>42462</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" ref="M19:M28" si="8">J19/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" ref="N19:N28" si="9">(VLOOKUP(G19,$S$3:$Z$4,2,FALSE)*(J19/3))+(VLOOKUP(G19,$S$3:$Z$4,3,FALSE)*(J19/3))+(VLOOKUP(G19,$S$3:$Z$4,5,FALSE)*(J19/3))</f>
+        <v>34005.411764705881</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="S19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20:L28" si="10">VLOOKUP(G20,$S$3:$Z$4,2,FALSE)*J20</f>
+        <v>70770</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="8"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N20" s="17">
+        <f>(VLOOKUP(G20,$S$3:$Z$4,2,FALSE)*(J20/3))+(VLOOKUP(G20,$S$3:$Z$4,3,FALSE)*(J20/3))+(VLOOKUP(G20,$S$3:$Z$4,5,FALSE)*(J20/3))</f>
+        <v>56675.686274509804</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="S20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="10"/>
+        <v>51651</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="N21" s="17">
+        <f t="shared" si="9"/>
+        <v>38119</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="S21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="10"/>
+        <v>51651</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="9"/>
+        <v>38119</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="10"/>
+        <v>34434</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="9"/>
+        <v>25412.666666666664</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="10"/>
+        <v>103302</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="9"/>
+        <v>76238</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>5.25</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="10"/>
+        <v>723114</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="9"/>
+        <v>533666</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="10"/>
+        <v>275472</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="9"/>
+        <v>203301.33333333331</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="10">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="10"/>
+        <v>550944</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="9"/>
+        <v>406602.66666666663</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="10">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="10"/>
+        <v>1515096</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="8"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="9"/>
+        <v>1118157.3333333333</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H29" s="3"/>
+      <c r="O29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H30" s="3"/>
+      <c r="O30" s="28">
+        <f>SUM(L18:L28)</f>
+        <v>3522198</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="29">
+        <f>SUM(N18:N28)</f>
+        <v>2606535.0980392154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="H32" s="3"/>
+      <c r="M32" s="14">
+        <f>P33/O30</f>
+        <v>0.25996917321535717</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H33" s="3"/>
+      <c r="M33" s="14">
+        <f>M32*1.68</f>
+        <v>0.43674821100180006</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="P33" s="25">
+        <f>O30-Q30</f>
+        <v>915662.90196078457</v>
+      </c>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H34" s="3"/>
+      <c r="M34" s="14"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="10">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K42" si="11">J36/8</f>
+        <v>4</v>
+      </c>
+      <c r="L36" s="17">
+        <f>VLOOKUP(G36,$S$3:$Z$4,2,FALSE)*J36</f>
+        <v>226464</v>
+      </c>
+      <c r="M36" s="12">
+        <f>J36/24</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N36" s="17">
+        <f>(VLOOKUP(G36,$S$3:$Z$4,2,FALSE)*(J36/3))+(VLOOKUP(G36,$S$3:$Z$4,3,FALSE)*(J36/3))+(VLOOKUP(G36,$S$3:$Z$4,5,FALSE)*(J36/3))</f>
+        <v>181362.19607843136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="10">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="L37" s="17">
+        <f t="shared" ref="L37:L42" si="12">VLOOKUP(G37,$S$3:$Z$4,2,FALSE)*J37</f>
+        <v>679392</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" ref="M37:M42" si="13">J37/24</f>
+        <v>4</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" ref="N37:N42" si="14">(VLOOKUP(G37,$S$3:$Z$4,2,FALSE)*(J37/3))+(VLOOKUP(G37,$S$3:$Z$4,3,FALSE)*(J37/3))+(VLOOKUP(G37,$S$3:$Z$4,5,FALSE)*(J37/3))</f>
+        <v>544086.5882352941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="10">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" si="12"/>
+        <v>113232</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="14"/>
+        <v>90681.098039215678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="10">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="12"/>
+        <v>413208</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="14"/>
+        <v>304952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="10">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40">
+        <f>H40*F40</f>
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="12"/>
+        <v>1721700</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="13"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N40" s="17">
+        <f t="shared" si="14"/>
+        <v>1270633.3333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="10">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41">
+        <f>H41*F41</f>
+        <v>48</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="12"/>
+        <v>339696</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="14"/>
+        <v>272043.29411764705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="10">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="11"/>
+        <v>1.875</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" si="12"/>
+        <v>106155</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+      <c r="N42" s="17">
+        <f t="shared" si="14"/>
+        <v>85013.529411764699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H43" s="3"/>
+      <c r="O43" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H44" s="3"/>
+      <c r="O44" s="29">
+        <f>SUM(L36:L42)</f>
+        <v>3599847</v>
+      </c>
+      <c r="Q44" s="29">
+        <f>SUM(N36:N42)</f>
+        <v>2748772.0392156867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H46" s="3"/>
+      <c r="M46" s="14">
+        <f>P47/O44</f>
+        <v>0.23641975916874058</v>
+      </c>
+      <c r="O46" s="35"/>
+      <c r="P46" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q46" s="35"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H47" s="3"/>
+      <c r="M47" s="14">
+        <f>M46*1.68</f>
+        <v>0.39718519540348418</v>
+      </c>
+      <c r="O47" s="34"/>
+      <c r="P47" s="32">
+        <f>O44-Q44</f>
+        <v>851074.96078431327</v>
+      </c>
+      <c r="Q47" s="34"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H48" s="3"/>
+      <c r="M48" s="14"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="34"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="10">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K55" si="15">J50/8</f>
+        <v>1.5</v>
+      </c>
+      <c r="L50" s="17">
+        <f>VLOOKUP(G50,$S$3:$Z$4,2,FALSE)*J50</f>
+        <v>206604</v>
+      </c>
+      <c r="M50" s="12">
+        <f t="shared" ref="M50:M55" si="16">J50/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="N50" s="17">
+        <f t="shared" ref="N50:N55" si="17">(VLOOKUP(G50,$S$3:$Z$4,2,FALSE)*(J50/3))+(VLOOKUP(G50,$S$3:$Z$4,3,FALSE)*(J50/3))+(VLOOKUP(G50,$S$3:$Z$4,5,FALSE)*(J50/3))</f>
+        <v>152476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="10">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>138</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:J55" si="18">H51*F51</f>
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="L51" s="17">
+        <f t="shared" ref="L51:L55" si="19">VLOOKUP(G51,$S$3:$Z$4,2,FALSE)*J51</f>
+        <v>566160</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N51" s="17">
+        <f t="shared" si="17"/>
+        <v>453405.49019607843</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="10">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="15"/>
+        <v>7.875</v>
+      </c>
+      <c r="L52" s="17">
+        <f t="shared" si="19"/>
+        <v>445851</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="16"/>
+        <v>2.625</v>
+      </c>
+      <c r="N52" s="17">
+        <f t="shared" si="17"/>
+        <v>357056.82352941175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="10">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="L53" s="17">
+        <f t="shared" si="19"/>
+        <v>826416</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="17">
+        <f t="shared" si="17"/>
+        <v>609904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="10">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>141</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="15"/>
+        <v>6.75</v>
+      </c>
+      <c r="L54" s="17">
+        <f t="shared" si="19"/>
+        <v>382158</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="16"/>
+        <v>2.25</v>
+      </c>
+      <c r="N54" s="17">
+        <f t="shared" si="17"/>
+        <v>306048.70588235295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="15">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="15"/>
+        <v>10.5</v>
+      </c>
+      <c r="L55" s="17">
+        <f t="shared" si="19"/>
+        <v>1446228</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="16"/>
+        <v>3.5</v>
+      </c>
+      <c r="N55" s="17">
+        <f t="shared" si="17"/>
+        <v>1067332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F56" s="15"/>
+      <c r="L56" s="17"/>
+      <c r="O56" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F57" s="15"/>
+      <c r="L57" s="17"/>
+      <c r="O57" s="29">
+        <f>SUM(L50:L55)</f>
+        <v>3873417</v>
+      </c>
+      <c r="Q57" s="29">
+        <f>SUM(N50:N55)</f>
+        <v>2946223.0196078429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F58" s="15"/>
+      <c r="L58" s="17"/>
+      <c r="P58" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F59" s="15"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="14">
+        <f>P59/O57</f>
+        <v>0.23937365390613949</v>
+      </c>
+      <c r="P59" s="32">
+        <f>O57-Q57</f>
+        <v>927193.9803921571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F60" s="15"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="14">
+        <f>M59*1.68</f>
+        <v>0.40214773856231434</v>
+      </c>
+      <c r="P60" s="33"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="15">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J90" si="20">H63*F63</f>
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:K67" si="21">J63/8</f>
+        <v>5.25</v>
+      </c>
+      <c r="L63" s="17">
+        <f>VLOOKUP(G63,$S$3:$Z$3,2,FALSE)*J63</f>
+        <v>723114</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" ref="M63:M67" si="22">J63/24</f>
+        <v>1.75</v>
+      </c>
+      <c r="N63" s="17">
+        <f>(VLOOKUP(G63,$S$3:$Z$3,2,FALSE)*(J63/3))+(VLOOKUP(G63,$S$3:$Z$3,3,FALSE)*(J63/3))+(VLOOKUP(G63,$S$3:$Z$3,5,FALSE)*(J63/3))</f>
+        <v>533666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="15">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="17">
+        <f t="shared" ref="L64:L67" si="23">VLOOKUP(G64,$S$3:$Z$4,2,FALSE)*J64</f>
+        <v>137736</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N64" s="17">
+        <f t="shared" ref="N64:N67" si="24">(VLOOKUP(G64,$S$3:$Z$3,2,FALSE)*(J64/3))+(VLOOKUP(G64,$S$3:$Z$3,3,FALSE)*(J64/3))+(VLOOKUP(G64,$S$3:$Z$3,5,FALSE)*(J64/3))</f>
+        <v>101650.66666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="15">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L65" s="17">
+        <f t="shared" si="23"/>
+        <v>550944</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N65" s="17">
+        <f t="shared" si="24"/>
+        <v>406602.66666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="15">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="L66" s="17">
+        <f t="shared" si="23"/>
+        <v>688680</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="22"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N66" s="17">
+        <f t="shared" si="24"/>
+        <v>508253.33333333337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="15">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L67" s="17">
+        <f t="shared" si="23"/>
+        <v>137736</v>
+      </c>
+      <c r="M67" s="12">
+        <f t="shared" si="22"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N67" s="17">
+        <f t="shared" si="24"/>
+        <v>101650.66666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F68" s="15"/>
+      <c r="O68" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F69" s="15"/>
+      <c r="O69" s="29">
+        <f>SUM(L63:L67)</f>
+        <v>2238210</v>
+      </c>
+      <c r="Q69" s="29">
+        <f>SUM(N63:N67)</f>
+        <v>1651823.3333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F70" s="15"/>
+      <c r="P70" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F71" s="15"/>
+      <c r="M71" s="14">
+        <f>P71/O69</f>
+        <v>0.26198911928133051</v>
+      </c>
+      <c r="P71" s="32">
+        <f>O69-Q69</f>
+        <v>586386.66666666674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F72" s="15"/>
+      <c r="M72" s="14">
+        <f>M71*1.68</f>
+        <v>0.44014172039263522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="15">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:K90" si="25">J75/8</f>
+        <v>3.75</v>
+      </c>
+      <c r="L75" s="17">
+        <f>VLOOKUP(G75,$S$3:$Z$4,2,FALSE)*J75</f>
+        <v>516510</v>
+      </c>
+      <c r="N75" s="17">
+        <f>(VLOOKUP(G75,$S$3:$Z$3,2,FALSE)*(J75/3))+(VLOOKUP(G75,$S$3:$Z$3,3,FALSE)*(J75/3))+(VLOOKUP(G75,$S$3:$Z$3,5,FALSE)*(J75/3))</f>
+        <v>381190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" s="15">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="L76" s="17">
+        <f t="shared" ref="L76:L90" si="26">VLOOKUP(G76,$S$3:$Z$4,2,FALSE)*J76</f>
+        <v>516510</v>
+      </c>
+      <c r="N76" s="17">
+        <f t="shared" ref="N76:N78" si="27">(VLOOKUP(G76,$S$3:$Z$3,2,FALSE)*(J76/3))+(VLOOKUP(G76,$S$3:$Z$3,3,FALSE)*(J76/3))+(VLOOKUP(G76,$S$3:$Z$3,5,FALSE)*(J76/3))</f>
+        <v>381190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="15">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="25"/>
+        <v>2.625</v>
+      </c>
+      <c r="L77" s="17">
+        <f t="shared" si="26"/>
+        <v>361557</v>
+      </c>
+      <c r="N77" s="17">
+        <f t="shared" si="27"/>
+        <v>266833</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" s="15">
+        <v>48</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="L78" s="17">
+        <f t="shared" si="26"/>
+        <v>4958496</v>
+      </c>
+      <c r="N78" s="17">
+        <f t="shared" si="27"/>
+        <v>3659424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F79" s="15"/>
+      <c r="L79" s="17"/>
+      <c r="O79" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F80" s="15"/>
+      <c r="L80" s="17"/>
+      <c r="O80" s="29">
+        <f>SUM(L75:L78)</f>
+        <v>6353073</v>
+      </c>
+      <c r="P80" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q80" s="29">
+        <f>SUM(N75:N78)</f>
+        <v>4688637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F81" s="15"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="14">
+        <f>P81/O80</f>
+        <v>0.26198911928133045</v>
+      </c>
+      <c r="P81" s="32">
+        <f>O80-Q80</f>
+        <v>1664436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F82" s="15"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="14">
+        <f>M81*1.68</f>
+        <v>0.44014172039263516</v>
+      </c>
+      <c r="P82" s="33"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="15"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F85" s="15"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" s="15">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+      <c r="I86" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="20"/>
+        <v>168</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="L86" s="17">
+        <f t="shared" si="26"/>
+        <v>2892456</v>
+      </c>
+      <c r="N86" s="17">
+        <f>(VLOOKUP(G86,$S$3:$Z$3,2,FALSE)*(J86/3))+(VLOOKUP(G86,$S$3:$Z$3,3,FALSE)*(J86/3))+(VLOOKUP(G86,$S$3:$Z$3,5,FALSE)*(J86/3))</f>
+        <v>2134664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="10">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="L87" s="17">
+        <f t="shared" si="26"/>
+        <v>275472</v>
+      </c>
+      <c r="N87" s="17">
+        <f t="shared" ref="N87:N90" si="28">(VLOOKUP(G87,$S$3:$Z$3,2,FALSE)*(J87/3))+(VLOOKUP(G87,$S$3:$Z$3,3,FALSE)*(J87/3))+(VLOOKUP(G87,$S$3:$Z$3,5,FALSE)*(J87/3))</f>
+        <v>203301.33333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="10">
+        <v>40</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="L88" s="17">
+        <f t="shared" si="26"/>
+        <v>688680</v>
+      </c>
+      <c r="N88" s="17">
+        <f t="shared" si="28"/>
+        <v>508253.33333333337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" s="15">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="L89" s="17">
+        <f t="shared" si="26"/>
+        <v>275472</v>
+      </c>
+      <c r="N89" s="17">
+        <f t="shared" si="28"/>
+        <v>203301.33333333331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="15">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="L90" s="17">
+        <f t="shared" si="26"/>
+        <v>344340</v>
+      </c>
+      <c r="N90" s="17">
+        <f t="shared" si="28"/>
+        <v>254126.66666666669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O91" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q91" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O92" s="29">
+        <f>SUM(L86:L90)</f>
+        <v>4476420</v>
+      </c>
+      <c r="P92" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q92" s="29">
+        <f>SUM(N86:N90)</f>
+        <v>3303646.666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M93" s="14">
+        <f>P93/O92</f>
+        <v>0.2619891192813304</v>
+      </c>
+      <c r="P93" s="32">
+        <f>O92-Q92</f>
+        <v>1172773.333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M94" s="14">
+        <f>M93*1.68</f>
+        <v>0.44014172039263505</v>
+      </c>
+    </row>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O97" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="46"/>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O99" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q99" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O100" s="30">
+        <f>SUM(O11+O30+O44+O57+O69+O80+O92)</f>
+        <v>27308539</v>
+      </c>
+      <c r="P100" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q100" s="30">
+        <f>SUM(Q11+Q30+Q44+Q57+Q69+Q80+Q92)</f>
+        <v>20355424.956427019</v>
+      </c>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="P101" s="45">
+        <f>O100-Q100</f>
+        <v>6953114.0435729809</v>
+      </c>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O104" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q104" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O105" s="27">
+        <f>O100*1.68</f>
+        <v>45878345.519999996</v>
+      </c>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="27">
+        <f>Q100*1.68</f>
+        <v>34197113.92679739</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O97:Q97"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="T5:Z5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>